--- a/WindowsFormsApp1/bin/Debug/source.xlsx
+++ b/WindowsFormsApp1/bin/Debug/source.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerojeck\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project_SCADA\VS\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5F83CE-1979-4720-BCCE-AFB0899FFC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5F0613-C69B-4524-9856-42A131CBE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15105" windowHeight="8850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="323">
   <si>
     <t>класть</t>
   </si>
@@ -991,6 +992,9 @@
   </si>
   <si>
     <t>became</t>
+  </si>
+  <si>
+    <t>12,22,18,43,6</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1074,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -1078,6 +1082,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
@@ -1366,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
@@ -2780,4 +2786,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26A3876-2E1A-4B51-B29E-34A99422CE0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WindowsFormsApp1/bin/Debug/source.xlsx
+++ b/WindowsFormsApp1/bin/Debug/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project_SCADA\VS\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5F0613-C69B-4524-9856-42A131CBE5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE4E616-DA20-42E5-AAE2-50591FC57196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="15105" windowHeight="8850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -994,7 +994,7 @@
     <t>became</t>
   </si>
   <si>
-    <t>12,22,18,43,6</t>
+    <t>7,27,45,37,14,30,17,50,32,42,29,46,19</t>
   </si>
 </sst>
 </file>
@@ -2792,11 +2792,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26A3876-2E1A-4B51-B29E-34A99422CE0F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="33.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
